--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753C344B-242F-154F-8F06-0CC632C1C861}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A20558-5A65-A74C-B560-437C0010982A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="8" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ds" sheetId="6" r:id="rId6"/>
     <sheet name="nlp" sheetId="7" r:id="rId7"/>
     <sheet name="cv" sheetId="8" r:id="rId8"/>
+    <sheet name="lifeskill" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="134">
   <si>
     <t>nama</t>
   </si>
@@ -442,6 +443,9 @@
   </si>
   <si>
     <t>belum selesai dicek</t>
+  </si>
+  <si>
+    <t>final_lifeskill</t>
   </si>
 </sst>
 </file>
@@ -610,6 +614,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,7 +921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1032,7 @@
         <v>83.25</v>
       </c>
       <c r="P2" s="14" t="str">
-        <f>IF(O2&gt;=80,"A",IF(O2&gt;=70,"B",IF(O2&gt;=50,"C",IF(O2&gt;=40,"D","E"))))</f>
+        <f t="shared" ref="P2:P32" si="0">IF(O2&gt;=80,"A",IF(O2&gt;=70,"B",IF(O2&gt;=50,"C",IF(O2&gt;=40,"D","E"))))</f>
         <v>A</v>
       </c>
     </row>
@@ -1075,7 +1083,7 @@
         <v>74.5</v>
       </c>
       <c r="P3" s="14" t="str">
-        <f>IF(O3&gt;=80,"A",IF(O3&gt;=70,"B",IF(O3&gt;=50,"C",IF(O3&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -1126,7 +1134,7 @@
         <v>90.69</v>
       </c>
       <c r="P4" s="14" t="str">
-        <f>IF(O4&gt;=80,"A",IF(O4&gt;=70,"B",IF(O4&gt;=50,"C",IF(O4&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1177,7 +1185,7 @@
         <v>64.06</v>
       </c>
       <c r="P5" s="14" t="str">
-        <f>IF(O5&gt;=80,"A",IF(O5&gt;=70,"B",IF(O5&gt;=50,"C",IF(O5&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1228,7 +1236,7 @@
         <v>82.13</v>
       </c>
       <c r="P6" s="14" t="str">
-        <f>IF(O6&gt;=80,"A",IF(O6&gt;=70,"B",IF(O6&gt;=50,"C",IF(O6&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1279,7 +1287,7 @@
         <v>69.63</v>
       </c>
       <c r="P7" s="14" t="str">
-        <f>IF(O7&gt;=80,"A",IF(O7&gt;=70,"B",IF(O7&gt;=50,"C",IF(O7&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1330,7 +1338,7 @@
         <v>92.13</v>
       </c>
       <c r="P8" s="14" t="str">
-        <f>IF(O8&gt;=80,"A",IF(O8&gt;=70,"B",IF(O8&gt;=50,"C",IF(O8&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1381,7 +1389,7 @@
         <v>71.31</v>
       </c>
       <c r="P9" s="14" t="str">
-        <f>IF(O9&gt;=80,"A",IF(O9&gt;=70,"B",IF(O9&gt;=50,"C",IF(O9&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -1432,7 +1440,7 @@
         <v>69.44</v>
       </c>
       <c r="P10" s="14" t="str">
-        <f>IF(O10&gt;=80,"A",IF(O10&gt;=70,"B",IF(O10&gt;=50,"C",IF(O10&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1483,7 +1491,7 @@
         <v>65</v>
       </c>
       <c r="P11" s="14" t="str">
-        <f>IF(O11&gt;=80,"A",IF(O11&gt;=70,"B",IF(O11&gt;=50,"C",IF(O11&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1534,7 +1542,7 @@
         <v>90.31</v>
       </c>
       <c r="P12" s="14" t="str">
-        <f>IF(O12&gt;=80,"A",IF(O12&gt;=70,"B",IF(O12&gt;=50,"C",IF(O12&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1585,7 +1593,7 @@
         <v>66.63</v>
       </c>
       <c r="P13" s="14" t="str">
-        <f>IF(O13&gt;=80,"A",IF(O13&gt;=70,"B",IF(O13&gt;=50,"C",IF(O13&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1636,7 +1644,7 @@
         <v>65.56</v>
       </c>
       <c r="P14" s="14" t="str">
-        <f>IF(O14&gt;=80,"A",IF(O14&gt;=70,"B",IF(O14&gt;=50,"C",IF(O14&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1687,7 +1695,7 @@
         <v>77.81</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f>IF(O15&gt;=80,"A",IF(O15&gt;=70,"B",IF(O15&gt;=50,"C",IF(O15&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -1738,7 +1746,7 @@
         <v>52.25</v>
       </c>
       <c r="P16" s="14" t="str">
-        <f>IF(O16&gt;=80,"A",IF(O16&gt;=70,"B",IF(O16&gt;=50,"C",IF(O16&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -1789,7 +1797,7 @@
         <v>80.63</v>
       </c>
       <c r="P17" s="14" t="str">
-        <f>IF(O17&gt;=80,"A",IF(O17&gt;=70,"B",IF(O17&gt;=50,"C",IF(O17&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1840,7 +1848,7 @@
         <v>91.63</v>
       </c>
       <c r="P18" s="14" t="str">
-        <f>IF(O18&gt;=80,"A",IF(O18&gt;=70,"B",IF(O18&gt;=50,"C",IF(O18&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1891,7 +1899,7 @@
         <v>83.25</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f>IF(O19&gt;=80,"A",IF(O19&gt;=70,"B",IF(O19&gt;=50,"C",IF(O19&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1942,7 +1950,7 @@
         <v>82.69</v>
       </c>
       <c r="P20" s="14" t="str">
-        <f>IF(O20&gt;=80,"A",IF(O20&gt;=70,"B",IF(O20&gt;=50,"C",IF(O20&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -1993,7 +2001,7 @@
         <v>89.38</v>
       </c>
       <c r="P21" s="14" t="str">
-        <f>IF(O21&gt;=80,"A",IF(O21&gt;=70,"B",IF(O21&gt;=50,"C",IF(O21&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2044,7 +2052,7 @@
         <v>73.56</v>
       </c>
       <c r="P22" s="14" t="str">
-        <f>IF(O22&gt;=80,"A",IF(O22&gt;=70,"B",IF(O22&gt;=50,"C",IF(O22&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -2095,7 +2103,7 @@
         <v>81.56</v>
       </c>
       <c r="P23" s="14" t="str">
-        <f>IF(O23&gt;=80,"A",IF(O23&gt;=70,"B",IF(O23&gt;=50,"C",IF(O23&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2146,7 +2154,7 @@
         <v>89.19</v>
       </c>
       <c r="P24" s="14" t="str">
-        <f>IF(O24&gt;=80,"A",IF(O24&gt;=70,"B",IF(O24&gt;=50,"C",IF(O24&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2197,7 +2205,7 @@
         <v>83.44</v>
       </c>
       <c r="P25" s="14" t="str">
-        <f>IF(O25&gt;=80,"A",IF(O25&gt;=70,"B",IF(O25&gt;=50,"C",IF(O25&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2248,7 +2256,7 @@
         <v>65.56</v>
       </c>
       <c r="P26" s="14" t="str">
-        <f>IF(O26&gt;=80,"A",IF(O26&gt;=70,"B",IF(O26&gt;=50,"C",IF(O26&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -2299,7 +2307,7 @@
         <v>86.19</v>
       </c>
       <c r="P27" s="14" t="str">
-        <f>IF(O27&gt;=80,"A",IF(O27&gt;=70,"B",IF(O27&gt;=50,"C",IF(O27&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2350,7 +2358,7 @@
         <v>73.38</v>
       </c>
       <c r="P28" s="14" t="str">
-        <f>IF(O28&gt;=80,"A",IF(O28&gt;=70,"B",IF(O28&gt;=50,"C",IF(O28&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -2401,7 +2409,7 @@
         <v>86.75</v>
       </c>
       <c r="P29" s="14" t="str">
-        <f>IF(O29&gt;=80,"A",IF(O29&gt;=70,"B",IF(O29&gt;=50,"C",IF(O29&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2452,7 +2460,7 @@
         <v>73.38</v>
       </c>
       <c r="P30" s="14" t="str">
-        <f>IF(O30&gt;=80,"A",IF(O30&gt;=70,"B",IF(O30&gt;=50,"C",IF(O30&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -2501,7 +2509,7 @@
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="14" t="str">
-        <f>IF(O31&gt;=80,"A",IF(O31&gt;=70,"B",IF(O31&gt;=50,"C",IF(O31&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>E</v>
       </c>
     </row>
@@ -2550,7 +2558,7 @@
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="14" t="str">
-        <f>IF(O32&gt;=80,"A",IF(O32&gt;=70,"B",IF(O32&gt;=50,"C",IF(O32&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>E</v>
       </c>
     </row>
@@ -2566,7 +2574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2"/>
+      <selection pane="topRight" sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2710,7 @@
         <v>83.25</v>
       </c>
       <c r="T2" s="9" t="str">
-        <f>IF(S2&gt;=80,"A",IF(S2&gt;=70,"B",IF(S2&gt;=50,"C",IF(S2&gt;=40,"D","E"))))</f>
+        <f t="shared" ref="T2:T32" si="0">IF(S2&gt;=80,"A",IF(S2&gt;=70,"B",IF(S2&gt;=50,"C",IF(S2&gt;=40,"D","E"))))</f>
         <v>A</v>
       </c>
     </row>
@@ -2765,7 +2773,7 @@
         <v>74.5</v>
       </c>
       <c r="T3" s="9" t="str">
-        <f>IF(S3&gt;=80,"A",IF(S3&gt;=70,"B",IF(S3&gt;=50,"C",IF(S3&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -2828,7 +2836,7 @@
         <v>90.69</v>
       </c>
       <c r="T4" s="9" t="str">
-        <f>IF(S4&gt;=80,"A",IF(S4&gt;=70,"B",IF(S4&gt;=50,"C",IF(S4&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -2891,7 +2899,7 @@
         <v>64.06</v>
       </c>
       <c r="T5" s="9" t="str">
-        <f>IF(S5&gt;=80,"A",IF(S5&gt;=70,"B",IF(S5&gt;=50,"C",IF(S5&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -2954,7 +2962,7 @@
         <v>82.13</v>
       </c>
       <c r="T6" s="9" t="str">
-        <f>IF(S6&gt;=80,"A",IF(S6&gt;=70,"B",IF(S6&gt;=50,"C",IF(S6&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3017,7 +3025,7 @@
         <v>69.63</v>
       </c>
       <c r="T7" s="9" t="str">
-        <f>IF(S7&gt;=80,"A",IF(S7&gt;=70,"B",IF(S7&gt;=50,"C",IF(S7&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3080,7 +3088,7 @@
         <v>92.13</v>
       </c>
       <c r="T8" s="9" t="str">
-        <f>IF(S8&gt;=80,"A",IF(S8&gt;=70,"B",IF(S8&gt;=50,"C",IF(S8&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3143,7 +3151,7 @@
         <v>71.31</v>
       </c>
       <c r="T9" s="9" t="str">
-        <f>IF(S9&gt;=80,"A",IF(S9&gt;=70,"B",IF(S9&gt;=50,"C",IF(S9&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -3206,7 +3214,7 @@
         <v>69.44</v>
       </c>
       <c r="T10" s="9" t="str">
-        <f>IF(S10&gt;=80,"A",IF(S10&gt;=70,"B",IF(S10&gt;=50,"C",IF(S10&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3269,7 +3277,7 @@
         <v>65</v>
       </c>
       <c r="T11" s="9" t="str">
-        <f>IF(S11&gt;=80,"A",IF(S11&gt;=70,"B",IF(S11&gt;=50,"C",IF(S11&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3332,7 +3340,7 @@
         <v>90.31</v>
       </c>
       <c r="T12" s="9" t="str">
-        <f>IF(S12&gt;=80,"A",IF(S12&gt;=70,"B",IF(S12&gt;=50,"C",IF(S12&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3395,7 +3403,7 @@
         <v>66.63</v>
       </c>
       <c r="T13" s="9" t="str">
-        <f>IF(S13&gt;=80,"A",IF(S13&gt;=70,"B",IF(S13&gt;=50,"C",IF(S13&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3458,7 +3466,7 @@
         <v>65.56</v>
       </c>
       <c r="T14" s="9" t="str">
-        <f>IF(S14&gt;=80,"A",IF(S14&gt;=70,"B",IF(S14&gt;=50,"C",IF(S14&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3521,7 +3529,7 @@
         <v>77.81</v>
       </c>
       <c r="T15" s="9" t="str">
-        <f>IF(S15&gt;=80,"A",IF(S15&gt;=70,"B",IF(S15&gt;=50,"C",IF(S15&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -3584,7 +3592,7 @@
         <v>52.25</v>
       </c>
       <c r="T16" s="9" t="str">
-        <f>IF(S16&gt;=80,"A",IF(S16&gt;=70,"B",IF(S16&gt;=50,"C",IF(S16&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -3647,7 +3655,7 @@
         <v>80.63</v>
       </c>
       <c r="T17" s="9" t="str">
-        <f>IF(S17&gt;=80,"A",IF(S17&gt;=70,"B",IF(S17&gt;=50,"C",IF(S17&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3710,7 +3718,7 @@
         <v>91.63</v>
       </c>
       <c r="T18" s="9" t="str">
-        <f>IF(S18&gt;=80,"A",IF(S18&gt;=70,"B",IF(S18&gt;=50,"C",IF(S18&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3773,7 +3781,7 @@
         <v>83.25</v>
       </c>
       <c r="T19" s="9" t="str">
-        <f>IF(S19&gt;=80,"A",IF(S19&gt;=70,"B",IF(S19&gt;=50,"C",IF(S19&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3836,7 +3844,7 @@
         <v>82.69</v>
       </c>
       <c r="T20" s="9" t="str">
-        <f>IF(S20&gt;=80,"A",IF(S20&gt;=70,"B",IF(S20&gt;=50,"C",IF(S20&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3899,7 +3907,7 @@
         <v>89.38</v>
       </c>
       <c r="T21" s="9" t="str">
-        <f>IF(S21&gt;=80,"A",IF(S21&gt;=70,"B",IF(S21&gt;=50,"C",IF(S21&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -3962,7 +3970,7 @@
         <v>73.56</v>
       </c>
       <c r="T22" s="9" t="str">
-        <f>IF(S22&gt;=80,"A",IF(S22&gt;=70,"B",IF(S22&gt;=50,"C",IF(S22&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -4025,7 +4033,7 @@
         <v>81.56</v>
       </c>
       <c r="T23" s="9" t="str">
-        <f>IF(S23&gt;=80,"A",IF(S23&gt;=70,"B",IF(S23&gt;=50,"C",IF(S23&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4088,7 +4096,7 @@
         <v>89.19</v>
       </c>
       <c r="T24" s="9" t="str">
-        <f>IF(S24&gt;=80,"A",IF(S24&gt;=70,"B",IF(S24&gt;=50,"C",IF(S24&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4151,7 +4159,7 @@
         <v>83.44</v>
       </c>
       <c r="T25" s="9" t="str">
-        <f>IF(S25&gt;=80,"A",IF(S25&gt;=70,"B",IF(S25&gt;=50,"C",IF(S25&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4214,7 +4222,7 @@
         <v>65.56</v>
       </c>
       <c r="T26" s="9" t="str">
-        <f>IF(S26&gt;=80,"A",IF(S26&gt;=70,"B",IF(S26&gt;=50,"C",IF(S26&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
@@ -4277,7 +4285,7 @@
         <v>86.19</v>
       </c>
       <c r="T27" s="9" t="str">
-        <f>IF(S27&gt;=80,"A",IF(S27&gt;=70,"B",IF(S27&gt;=50,"C",IF(S27&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4340,7 +4348,7 @@
         <v>73.38</v>
       </c>
       <c r="T28" s="9" t="str">
-        <f>IF(S28&gt;=80,"A",IF(S28&gt;=70,"B",IF(S28&gt;=50,"C",IF(S28&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -4403,7 +4411,7 @@
         <v>86.75</v>
       </c>
       <c r="T29" s="9" t="str">
-        <f>IF(S29&gt;=80,"A",IF(S29&gt;=70,"B",IF(S29&gt;=50,"C",IF(S29&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4466,7 +4474,7 @@
         <v>73.38</v>
       </c>
       <c r="T30" s="9" t="str">
-        <f>IF(S30&gt;=80,"A",IF(S30&gt;=70,"B",IF(S30&gt;=50,"C",IF(S30&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
@@ -4529,7 +4537,7 @@
         <v>80</v>
       </c>
       <c r="T31" s="9" t="str">
-        <f>IF(S31&gt;=80,"A",IF(S31&gt;=70,"B",IF(S31&gt;=50,"C",IF(S31&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -4592,7 +4600,7 @@
         <v>80</v>
       </c>
       <c r="T32" s="9" t="str">
-        <f>IF(S32&gt;=80,"A",IF(S32&gt;=70,"B",IF(S32&gt;=50,"C",IF(S32&gt;=40,"D","E"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -8620,7 +8628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10615,7 +10623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
@@ -11595,4 +11603,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09506F89-35DF-9B43-8C9B-6CAC1DFD9325}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A20558-5A65-A74C-B560-437C0010982A}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E93AB7-7AAC-D249-8C4D-303B6F8145B8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="8" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="135">
   <si>
     <t>nama</t>
   </si>
@@ -446,13 +446,16 @@
   </si>
   <si>
     <t>final_lifeskill</t>
+  </si>
+  <si>
+    <t>mini_project_cv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +555,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,6 +608,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9663,7 +9673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9712,8 +9722,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>132</v>
+      <c r="B2" s="17">
+        <v>70</v>
       </c>
       <c r="C2" s="17">
         <v>100</v>
@@ -9733,17 +9743,20 @@
       <c r="H2" s="2">
         <v>30</v>
       </c>
+      <c r="I2" s="4">
+        <v>69.75</v>
+      </c>
       <c r="J2" t="str">
         <f>IF(I2&gt;=80,"A",IF(I2&gt;=70,"B",IF(I2&gt;=50,"C",IF(I2&gt;=40,"D","E"))))</f>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>132</v>
+      <c r="B3" s="17">
+        <v>80</v>
       </c>
       <c r="C3" s="17">
         <v>100</v>
@@ -9763,17 +9776,20 @@
       <c r="H3" s="2">
         <v>80</v>
       </c>
+      <c r="I3" s="4">
+        <v>90.5</v>
+      </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J32" si="0">IF(I3&gt;=80,"A",IF(I3&gt;=70,"B",IF(I3&gt;=50,"C",IF(I3&gt;=40,"D","E"))))</f>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>132</v>
+      <c r="B4" s="17">
+        <v>70</v>
       </c>
       <c r="C4" s="17">
         <v>100</v>
@@ -9793,17 +9809,20 @@
       <c r="H4" s="2">
         <v>30</v>
       </c>
+      <c r="I4" s="4">
+        <v>69.75</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>132</v>
+      <c r="B5" s="17">
+        <v>70</v>
       </c>
       <c r="C5" s="17">
         <v>100</v>
@@ -9823,17 +9842,20 @@
       <c r="H5" s="2">
         <v>50</v>
       </c>
+      <c r="I5" s="4">
+        <v>77.75</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>132</v>
+      <c r="B6" s="17">
+        <v>95</v>
       </c>
       <c r="C6" s="17">
         <v>100</v>
@@ -9853,17 +9875,20 @@
       <c r="H6" s="2">
         <v>90</v>
       </c>
+      <c r="I6" s="4">
+        <v>95.63</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>132</v>
+      <c r="B7" s="17">
+        <v>60</v>
       </c>
       <c r="C7" s="17">
         <v>100</v>
@@ -9883,17 +9908,20 @@
       <c r="H7" s="2">
         <v>10</v>
       </c>
+      <c r="I7" s="4">
+        <v>61</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>132</v>
+      <c r="B8" s="17">
+        <v>95</v>
       </c>
       <c r="C8" s="17">
         <v>100</v>
@@ -9913,17 +9941,20 @@
       <c r="H8" s="2">
         <v>50</v>
       </c>
+      <c r="I8" s="4">
+        <v>79.63</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>132</v>
+      <c r="B9" s="17">
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>100</v>
@@ -9943,17 +9974,20 @@
       <c r="H9" s="2">
         <v>50</v>
       </c>
+      <c r="I9" s="4">
+        <v>78.88</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>132</v>
+      <c r="B10" s="17">
+        <v>97</v>
       </c>
       <c r="C10" s="17">
         <v>100</v>
@@ -9973,17 +10007,20 @@
       <c r="H10" s="2">
         <v>30</v>
       </c>
+      <c r="I10" s="4">
+        <v>71.78</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>132</v>
+      <c r="B11" s="17">
+        <v>60</v>
       </c>
       <c r="C11" s="17">
         <v>100</v>
@@ -10003,17 +10040,20 @@
       <c r="H11" s="2">
         <v>20</v>
       </c>
+      <c r="I11" s="4">
+        <v>41</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>132</v>
+      <c r="B12" s="17">
+        <v>95</v>
       </c>
       <c r="C12" s="17">
         <v>100</v>
@@ -10033,17 +10073,20 @@
       <c r="H12" s="2">
         <v>70</v>
       </c>
+      <c r="I12" s="4">
+        <v>87.63</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>132</v>
+      <c r="B13" s="17">
+        <v>97</v>
       </c>
       <c r="C13" s="17">
         <v>100</v>
@@ -10063,17 +10106,20 @@
       <c r="H13" s="2">
         <v>40</v>
       </c>
+      <c r="I13" s="4">
+        <v>69.78</v>
+      </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>132</v>
+      <c r="B14" s="17">
+        <v>95</v>
       </c>
       <c r="C14" s="17">
         <v>70</v>
@@ -10093,17 +10139,20 @@
       <c r="H14" s="2">
         <v>10</v>
       </c>
+      <c r="I14" s="4">
+        <v>50.88</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>132</v>
+      <c r="B15" s="17">
+        <v>95</v>
       </c>
       <c r="C15" s="17">
         <v>100</v>
@@ -10123,17 +10172,20 @@
       <c r="H15" s="2">
         <v>30</v>
       </c>
+      <c r="I15" s="4">
+        <v>65.63</v>
+      </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>132</v>
+      <c r="B16" s="17">
+        <v>75</v>
       </c>
       <c r="C16" s="17">
         <v>100</v>
@@ -10153,17 +10205,20 @@
       <c r="H16" s="2">
         <v>50</v>
       </c>
+      <c r="I16" s="4">
+        <v>72.13</v>
+      </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>132</v>
+      <c r="B17" s="17">
+        <v>95</v>
       </c>
       <c r="C17" s="17">
         <v>100</v>
@@ -10183,17 +10238,20 @@
       <c r="H17" s="2">
         <v>60</v>
       </c>
+      <c r="I17" s="4">
+        <v>83.63</v>
+      </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>132</v>
+      <c r="B18" s="17">
+        <v>75</v>
       </c>
       <c r="C18" s="17">
         <v>100</v>
@@ -10213,17 +10271,20 @@
       <c r="H18" s="2">
         <v>100</v>
       </c>
+      <c r="I18" s="4">
+        <v>98.13</v>
+      </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>132</v>
+      <c r="B19" s="17">
+        <v>95</v>
       </c>
       <c r="C19" s="17">
         <v>100</v>
@@ -10243,17 +10304,20 @@
       <c r="H19" s="2">
         <v>80</v>
       </c>
+      <c r="I19" s="4">
+        <v>91.63</v>
+      </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>132</v>
+      <c r="B20" s="17">
+        <v>75</v>
       </c>
       <c r="C20" s="17">
         <v>100</v>
@@ -10273,17 +10337,20 @@
       <c r="H20" s="2">
         <v>40</v>
       </c>
+      <c r="I20" s="4">
+        <v>74.13</v>
+      </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>132</v>
+      <c r="B21" s="17">
+        <v>98</v>
       </c>
       <c r="C21" s="17">
         <v>100</v>
@@ -10303,17 +10370,20 @@
       <c r="H21" s="2">
         <v>40</v>
       </c>
+      <c r="I21" s="4">
+        <v>75.849999999999994</v>
+      </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>132</v>
+      <c r="B22" s="17">
+        <v>90</v>
       </c>
       <c r="C22" s="17">
         <v>100</v>
@@ -10333,17 +10403,20 @@
       <c r="H22" s="2">
         <v>30</v>
       </c>
+      <c r="I22" s="4">
+        <v>71.25</v>
+      </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>132</v>
+      <c r="B23" s="17">
+        <v>98</v>
       </c>
       <c r="C23" s="17">
         <v>100</v>
@@ -10363,17 +10436,20 @@
       <c r="H23" s="2">
         <v>40</v>
       </c>
+      <c r="I23" s="4">
+        <v>75.849999999999994</v>
+      </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>132</v>
+      <c r="B24" s="17">
+        <v>97</v>
       </c>
       <c r="C24" s="17">
         <v>100</v>
@@ -10393,17 +10469,20 @@
       <c r="H24" s="2">
         <v>40</v>
       </c>
+      <c r="I24" s="4">
+        <v>75.78</v>
+      </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>132</v>
+      <c r="B25" s="17">
+        <v>85</v>
       </c>
       <c r="C25" s="17">
         <v>100</v>
@@ -10423,17 +10502,20 @@
       <c r="H25" s="2">
         <v>80</v>
       </c>
+      <c r="I25" s="4">
+        <v>90.88</v>
+      </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>132</v>
+      <c r="B26" s="17">
+        <v>90</v>
       </c>
       <c r="C26" s="17">
         <v>100</v>
@@ -10453,17 +10535,20 @@
       <c r="H26" s="2">
         <v>70</v>
       </c>
+      <c r="I26" s="4">
+        <v>87.25</v>
+      </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>132</v>
+      <c r="B27" s="17">
+        <v>85</v>
       </c>
       <c r="C27" s="17">
         <v>100</v>
@@ -10483,17 +10568,20 @@
       <c r="H27" s="2">
         <v>60</v>
       </c>
+      <c r="I27" s="4">
+        <v>82.88</v>
+      </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>132</v>
+      <c r="B28" s="17">
+        <v>95</v>
       </c>
       <c r="C28" s="17">
         <v>70</v>
@@ -10513,17 +10601,20 @@
       <c r="H28" s="2">
         <v>10</v>
       </c>
+      <c r="I28" s="4">
+        <v>50.88</v>
+      </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>132</v>
+      <c r="B29" s="17">
+        <v>90</v>
       </c>
       <c r="C29" s="17">
         <v>100</v>
@@ -10543,17 +10634,20 @@
       <c r="H29" s="2">
         <v>70</v>
       </c>
+      <c r="I29" s="4">
+        <v>87.25</v>
+      </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>132</v>
+      <c r="B30" s="17">
+        <v>97</v>
       </c>
       <c r="C30" s="17">
         <v>100</v>
@@ -10573,9 +10667,12 @@
       <c r="H30" s="2">
         <v>30</v>
       </c>
+      <c r="I30" s="4">
+        <v>71.78</v>
+      </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -10591,9 +10688,12 @@
       <c r="H31" s="2">
         <v>80</v>
       </c>
+      <c r="I31" s="4">
+        <v>70</v>
+      </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -10609,9 +10709,12 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
+      <c r="I32" s="4">
+        <v>70</v>
+      </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
@@ -10621,11 +10724,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10638,7 +10741,7 @@
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10658,946 +10761,1135 @@
         <v>118</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="B2" s="4">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4">
+        <v>95</v>
+      </c>
+      <c r="H2" s="19">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
         <v>60</v>
       </c>
-      <c r="J2" t="str">
-        <f>IF(I2&gt;=80,"A",IF(I2&gt;=70,"B",IF(I2&gt;=50,"C",IF(I2&gt;=40,"D","E"))))</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="4">
+        <v>81</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2&gt;=80,"A",IF(J2&gt;=70,"B",IF(J2&gt;=50,"C",IF(J2&gt;=40,"D","E"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="B3" s="4">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4">
+        <v>95</v>
+      </c>
+      <c r="H3" s="19">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <v>60</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J32" si="0">IF(I3&gt;=80,"A",IF(I3&gt;=70,"B",IF(I3&gt;=50,"C",IF(I3&gt;=40,"D","E"))))</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K32" si="0">IF(J3&gt;=80,"A",IF(J3&gt;=70,"B",IF(J3&gt;=50,"C",IF(J3&gt;=40,"D","E"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="4">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4">
+        <v>90</v>
+      </c>
+      <c r="F4" s="4">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="19">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="B5" s="4">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="19">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="4">
+        <v>77</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="B6" s="4">
+        <v>75</v>
+      </c>
+      <c r="C6" s="4">
+        <v>95</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>90</v>
+      </c>
+      <c r="F6" s="4">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4">
+        <v>95</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
         <v>70</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="4">
+        <v>84.25</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="B7" s="4">
         <v>50</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4">
+        <v>65</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="B8" s="4">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4">
+        <v>90</v>
+      </c>
+      <c r="F8" s="4">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
         <v>40</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="4">
+        <v>69</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="B9" s="4">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4">
+        <v>90</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
         <v>60</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="B10" s="4">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4">
+        <v>90</v>
+      </c>
+      <c r="F10" s="4">
+        <v>80</v>
+      </c>
+      <c r="G10" s="4">
+        <v>95</v>
+      </c>
+      <c r="H10" s="19">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="4">
+        <v>58.75</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="4">
+        <v>55</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="B12" s="4">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4">
+        <v>90</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="B13" s="4">
         <v>50</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
+        <v>90</v>
+      </c>
+      <c r="H13" s="19">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4">
+        <v>67</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="B14" s="4">
         <v>50</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4">
+        <v>90</v>
+      </c>
+      <c r="F14" s="4">
+        <v>75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>95</v>
+      </c>
+      <c r="H14" s="19">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="B15" s="4">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>85</v>
+      </c>
+      <c r="D15" s="4">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4">
+        <v>90</v>
+      </c>
+      <c r="H15" s="19">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
         <v>40</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="4">
+        <v>71.75</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="B16" s="4">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
+        <v>90</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
         <v>20</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="4">
+        <v>49</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="B17" s="4">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>85</v>
+      </c>
+      <c r="D17" s="4">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4">
+        <v>90</v>
+      </c>
+      <c r="F17" s="4">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4">
+        <v>95</v>
+      </c>
+      <c r="H17" s="19">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
         <v>70</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="4">
+        <v>83.75</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>90</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4">
+        <v>90</v>
+      </c>
+      <c r="E18" s="4">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4">
+        <v>80</v>
+      </c>
+      <c r="G18" s="4">
+        <v>90</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>90</v>
+      </c>
+      <c r="J18" s="4">
+        <v>92.25</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="B19" s="4">
         <v>80</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4">
+        <v>85</v>
+      </c>
+      <c r="G19" s="4">
+        <v>95</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>80</v>
+      </c>
+      <c r="J19" s="4">
+        <v>87.75</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="B20" s="4">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4">
+        <v>90</v>
+      </c>
+      <c r="F20" s="4">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4">
+        <v>50</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
         <v>60</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="B21" s="4">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4">
         <v>70</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="4">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4">
+        <v>90</v>
+      </c>
+      <c r="F21" s="4">
+        <v>50</v>
+      </c>
+      <c r="G21" s="4">
+        <v>86</v>
+      </c>
+      <c r="H21" s="19">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>70</v>
+      </c>
+      <c r="J21" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="B22" s="4">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4">
+        <v>90</v>
+      </c>
+      <c r="F22" s="4">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <v>86</v>
+      </c>
+      <c r="H22" s="19">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
         <v>30</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="4">
+        <v>67.55</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="B23" s="4">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4">
+        <v>86</v>
+      </c>
+      <c r="H23" s="19">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
         <v>50</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="4">
+        <v>74.55</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="B24" s="4">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4">
+        <v>90</v>
+      </c>
+      <c r="F24" s="4">
+        <v>80</v>
+      </c>
+      <c r="G24" s="4">
+        <v>86</v>
+      </c>
+      <c r="H24" s="19">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
         <v>60</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="4">
+        <v>79.05</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="B25" s="4">
+        <v>90</v>
+      </c>
+      <c r="C25" s="4">
+        <v>90</v>
+      </c>
+      <c r="D25" s="4">
         <v>80</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4">
+        <v>85</v>
+      </c>
+      <c r="G25" s="4">
+        <v>90</v>
+      </c>
+      <c r="H25" s="19">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>80</v>
+      </c>
+      <c r="J25" s="4">
+        <v>88.25</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="B26" s="4">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4">
+        <v>95</v>
+      </c>
+      <c r="D26" s="4">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4">
+        <v>90</v>
+      </c>
+      <c r="F26" s="4">
+        <v>90</v>
+      </c>
+      <c r="G26" s="4">
+        <v>90</v>
+      </c>
+      <c r="H26" s="19">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
         <v>50</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="4">
+        <v>76.25</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4">
+        <v>85</v>
+      </c>
+      <c r="D27" s="4">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4">
+        <v>85</v>
+      </c>
+      <c r="G27" s="4">
+        <v>90</v>
+      </c>
+      <c r="H27" s="19">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="4">
+        <v>90</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="B28" s="4">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4">
+        <v>90</v>
+      </c>
+      <c r="F28" s="4">
+        <v>85</v>
+      </c>
+      <c r="G28" s="4">
+        <v>95</v>
+      </c>
+      <c r="H28" s="19">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
         <v>30</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="4">
+        <v>63</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="B29" s="4">
+        <v>80</v>
+      </c>
+      <c r="C29" s="4">
+        <v>88</v>
+      </c>
+      <c r="D29" s="4">
+        <v>85</v>
+      </c>
+      <c r="E29" s="4">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4">
+        <v>95</v>
+      </c>
+      <c r="G29" s="4">
+        <v>90</v>
+      </c>
+      <c r="H29" s="19">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2">
         <v>70</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="B30" s="4">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4">
+        <v>70</v>
+      </c>
+      <c r="G30" s="4">
+        <v>86</v>
+      </c>
+      <c r="H30" s="19">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
         <v>20</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="4">
+        <v>61.8</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="B31" s="4">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4">
+        <v>88</v>
+      </c>
+      <c r="D31" s="4">
         <v>85</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>90</v>
+      </c>
+      <c r="F31" s="4">
+        <v>95</v>
+      </c>
+      <c r="G31" s="4">
+        <v>90</v>
+      </c>
+      <c r="H31" s="17">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>85</v>
+      </c>
+      <c r="J31" s="4">
+        <v>70</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="B32" s="4">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4">
         <v>75</v>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
+      <c r="D32" s="4">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>90</v>
+      </c>
+      <c r="F32" s="4">
+        <v>70</v>
+      </c>
+      <c r="G32" s="4">
+        <v>86</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>75</v>
+      </c>
+      <c r="J32" s="4">
+        <v>70</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
@@ -11609,7 +11901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09506F89-35DF-9B43-8C9B-6CAC1DFD9325}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E93AB7-7AAC-D249-8C4D-303B6F8145B8}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6178586-6DC0-5148-AA63-4D78CAE2F5AB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -9671,9 +9671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE923BF7-4920-F34C-8CDD-3755F3BF580F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9888,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17">
         <v>100</v>
@@ -10020,7 +10020,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17">
         <v>100</v>
@@ -10726,7 +10726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J33" sqref="J33"/>
     </sheetView>

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6178586-6DC0-5148-AA63-4D78CAE2F5AB}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05992313-8D28-7449-9115-33A52243E7F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="6" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7599,7 +7599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9671,7 +9671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE923BF7-4920-F34C-8CDD-3755F3BF580F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -10726,9 +10726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J33" sqref="J33"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11153,7 +11153,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4">
         <v>90</v>
@@ -11393,19 +11393,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4">
         <v>85</v>
       </c>
       <c r="D19" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4">
         <v>90</v>
       </c>
       <c r="F19" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G19" s="4">
         <v>95</v>
@@ -11429,19 +11429,19 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E20" s="4">
         <v>90</v>
       </c>
       <c r="F20" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G20" s="4">
         <v>50</v>
@@ -11465,19 +11465,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D21" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4">
         <v>90</v>
       </c>
       <c r="F21" s="4">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4">
         <v>86</v>

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05992313-8D28-7449-9115-33A52243E7F3}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9300F8B3-1216-1C4B-819F-FD8444C76795}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +561,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +616,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10728,7 +10736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10804,7 +10812,7 @@
       <c r="I2" s="2">
         <v>60</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="20">
         <v>81</v>
       </c>
       <c r="K2" t="str">
@@ -10840,7 +10848,7 @@
       <c r="I3" s="2">
         <v>60</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="20">
         <v>80.5</v>
       </c>
       <c r="K3" t="str">
@@ -10876,7 +10884,7 @@
       <c r="I4" s="2">
         <v>50</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="20">
         <v>73.5</v>
       </c>
       <c r="K4" t="str">
@@ -10912,7 +10920,7 @@
       <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="20">
         <v>77</v>
       </c>
       <c r="K5" t="str">
@@ -10948,7 +10956,7 @@
       <c r="I6" s="2">
         <v>70</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="20">
         <v>84.25</v>
       </c>
       <c r="K6" t="str">
@@ -10984,7 +10992,7 @@
       <c r="I7" s="2">
         <v>50</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="20">
         <v>65</v>
       </c>
       <c r="K7" t="str">
@@ -11020,7 +11028,7 @@
       <c r="I8" s="2">
         <v>40</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="20">
         <v>69</v>
       </c>
       <c r="K8" t="str">
@@ -11056,7 +11064,7 @@
       <c r="I9" s="2">
         <v>60</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="20">
         <v>75.5</v>
       </c>
       <c r="K9" t="str">
@@ -11092,7 +11100,7 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="20">
         <v>58.75</v>
       </c>
       <c r="K10" t="str">
@@ -11128,7 +11136,7 @@
       <c r="I11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="20">
         <v>55</v>
       </c>
       <c r="K11" t="str">
@@ -11164,8 +11172,8 @@
       <c r="I12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="4">
-        <v>81.5</v>
+      <c r="J12" s="20">
+        <v>83.5</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -11200,7 +11208,7 @@
       <c r="I13" s="2">
         <v>50</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="20">
         <v>67</v>
       </c>
       <c r="K13" t="str">
@@ -11236,7 +11244,7 @@
       <c r="I14" s="2">
         <v>50</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="20">
         <v>70.5</v>
       </c>
       <c r="K14" t="str">
@@ -11272,7 +11280,7 @@
       <c r="I15" s="2">
         <v>40</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="20">
         <v>71.75</v>
       </c>
       <c r="K15" t="str">
@@ -11308,7 +11316,7 @@
       <c r="I16" s="2">
         <v>20</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="20">
         <v>49</v>
       </c>
       <c r="K16" t="str">
@@ -11344,7 +11352,7 @@
       <c r="I17" s="2">
         <v>70</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="20">
         <v>83.75</v>
       </c>
       <c r="K17" t="str">
@@ -11380,7 +11388,7 @@
       <c r="I18" s="2">
         <v>90</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="20">
         <v>92.25</v>
       </c>
       <c r="K18" t="str">
@@ -11416,8 +11424,8 @@
       <c r="I19" s="2">
         <v>80</v>
       </c>
-      <c r="J19" s="4">
-        <v>87.75</v>
+      <c r="J19" s="20">
+        <v>88.75</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -11452,8 +11460,8 @@
       <c r="I20" s="2">
         <v>60</v>
       </c>
-      <c r="J20" s="4">
-        <v>78.5</v>
+      <c r="J20" s="20">
+        <v>75</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -11488,12 +11496,12 @@
       <c r="I21" s="2">
         <v>70</v>
       </c>
-      <c r="J21" s="4">
-        <v>79.8</v>
+      <c r="J21" s="20">
+        <v>83.3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -11524,7 +11532,7 @@
       <c r="I22" s="2">
         <v>30</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="20">
         <v>67.55</v>
       </c>
       <c r="K22" t="str">
@@ -11560,7 +11568,7 @@
       <c r="I23" s="2">
         <v>50</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="20">
         <v>74.55</v>
       </c>
       <c r="K23" t="str">
@@ -11596,7 +11604,7 @@
       <c r="I24" s="2">
         <v>60</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="20">
         <v>79.05</v>
       </c>
       <c r="K24" t="str">
@@ -11632,7 +11640,7 @@
       <c r="I25" s="2">
         <v>80</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="20">
         <v>88.25</v>
       </c>
       <c r="K25" t="str">
@@ -11668,7 +11676,7 @@
       <c r="I26" s="2">
         <v>50</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="20">
         <v>76.25</v>
       </c>
       <c r="K26" t="str">
@@ -11704,7 +11712,7 @@
       <c r="I27" s="2">
         <v>100</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="20">
         <v>90</v>
       </c>
       <c r="K27" t="str">
@@ -11740,7 +11748,7 @@
       <c r="I28" s="2">
         <v>30</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="20">
         <v>63</v>
       </c>
       <c r="K28" t="str">
@@ -11776,7 +11784,7 @@
       <c r="I29" s="2">
         <v>70</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="20">
         <v>84.4</v>
       </c>
       <c r="K29" t="str">
@@ -11812,7 +11820,7 @@
       <c r="I30" s="2">
         <v>20</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="20">
         <v>61.8</v>
       </c>
       <c r="K30" t="str">

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9300F8B3-1216-1C4B-819F-FD8444C76795}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874FDC7-DD68-884D-9D93-8B9E2D2F739A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -4636,9 +4636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7913E6DD-EB3B-FB44-A801-0D323E8EABCE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5419,7 +5419,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
@@ -5434,14 +5434,14 @@
         <v>1</v>
       </c>
       <c r="H24" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="4">
-        <v>71.5</v>
+        <v>81</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10734,9 +10734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874FDC7-DD68-884D-9D93-8B9E2D2F739A}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EB7084-34CC-A24F-BDBF-532E70000DB8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="4" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,8 +1046,8 @@
       <c r="N2" s="12">
         <v>70</v>
       </c>
-      <c r="O2" s="13">
-        <v>83.25</v>
+      <c r="O2" s="4">
+        <v>86.5</v>
       </c>
       <c r="P2" s="14" t="str">
         <f t="shared" ref="P2:P32" si="0">IF(O2&gt;=80,"A",IF(O2&gt;=70,"B",IF(O2&gt;=50,"C",IF(O2&gt;=40,"D","E"))))</f>
@@ -1097,12 +1097,12 @@
       <c r="N3" s="12">
         <v>60</v>
       </c>
-      <c r="O3" s="13">
-        <v>74.5</v>
+      <c r="O3" s="4">
+        <v>82.2</v>
       </c>
       <c r="P3" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1148,8 +1148,8 @@
       <c r="N4" s="12">
         <v>70</v>
       </c>
-      <c r="O4" s="13">
-        <v>90.69</v>
+      <c r="O4" s="4">
+        <v>87.4</v>
       </c>
       <c r="P4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1199,12 +1199,12 @@
       <c r="N5" s="12">
         <v>60</v>
       </c>
-      <c r="O5" s="13">
-        <v>64.06</v>
+      <c r="O5" s="4">
+        <v>83.1</v>
       </c>
       <c r="P5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1250,8 +1250,8 @@
       <c r="N6" s="12">
         <v>80</v>
       </c>
-      <c r="O6" s="13">
-        <v>82.13</v>
+      <c r="O6" s="4">
+        <v>91.7</v>
       </c>
       <c r="P6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1301,12 +1301,12 @@
       <c r="N7" s="12">
         <v>50</v>
       </c>
-      <c r="O7" s="13">
-        <v>69.63</v>
+      <c r="O7" s="4">
+        <v>78.5</v>
       </c>
       <c r="P7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1352,8 +1352,8 @@
       <c r="N8" s="12">
         <v>90</v>
       </c>
-      <c r="O8" s="13">
-        <v>92.13</v>
+      <c r="O8" s="4">
+        <v>95.1</v>
       </c>
       <c r="P8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1403,12 +1403,12 @@
       <c r="N9" s="12">
         <v>60</v>
       </c>
-      <c r="O9" s="13">
-        <v>71.31</v>
+      <c r="O9" s="4">
+        <v>83.7</v>
       </c>
       <c r="P9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1454,12 +1454,12 @@
       <c r="N10" s="12">
         <v>80</v>
       </c>
-      <c r="O10" s="13">
-        <v>69.44</v>
+      <c r="O10" s="4">
+        <v>90.5</v>
       </c>
       <c r="P10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1505,12 +1505,12 @@
       <c r="N11" s="12">
         <v>70</v>
       </c>
-      <c r="O11" s="13">
-        <v>65</v>
+      <c r="O11" s="4">
+        <v>87.1</v>
       </c>
       <c r="P11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1556,8 +1556,8 @@
       <c r="N12" s="12">
         <v>80</v>
       </c>
-      <c r="O12" s="13">
-        <v>90.31</v>
+      <c r="O12" s="4">
+        <v>91.1</v>
       </c>
       <c r="P12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1607,12 +1607,12 @@
       <c r="N13" s="12">
         <v>80</v>
       </c>
-      <c r="O13" s="13">
-        <v>66.63</v>
+      <c r="O13" s="4">
+        <v>91.4</v>
       </c>
       <c r="P13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1658,12 +1658,12 @@
       <c r="N14" s="12">
         <v>50</v>
       </c>
-      <c r="O14" s="13">
-        <v>65.56</v>
+      <c r="O14" s="4">
+        <v>78.5</v>
       </c>
       <c r="P14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1709,12 +1709,12 @@
       <c r="N15" s="12">
         <v>90</v>
       </c>
-      <c r="O15" s="13">
-        <v>77.81</v>
+      <c r="O15" s="4">
+        <v>95.4</v>
       </c>
       <c r="P15" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1760,12 +1760,12 @@
       <c r="N16" s="12">
         <v>80</v>
       </c>
-      <c r="O16" s="13">
-        <v>52.25</v>
+      <c r="O16" s="4">
+        <v>91.1</v>
       </c>
       <c r="P16" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1811,12 +1811,12 @@
       <c r="N17" s="12">
         <v>50</v>
       </c>
-      <c r="O17" s="13">
-        <v>80.63</v>
+      <c r="O17" s="4">
+        <v>79.099999999999994</v>
       </c>
       <c r="P17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1862,8 +1862,8 @@
       <c r="N18" s="12">
         <v>90</v>
       </c>
-      <c r="O18" s="13">
-        <v>91.63</v>
+      <c r="O18" s="4">
+        <v>95.7</v>
       </c>
       <c r="P18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1913,8 +1913,8 @@
       <c r="N19" s="12">
         <v>90</v>
       </c>
-      <c r="O19" s="13">
-        <v>83.25</v>
+      <c r="O19" s="4">
+        <v>95.4</v>
       </c>
       <c r="P19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1964,8 +1964,8 @@
       <c r="N20" s="12">
         <v>100</v>
       </c>
-      <c r="O20" s="13">
-        <v>82.69</v>
+      <c r="O20" s="4">
+        <v>99.1</v>
       </c>
       <c r="P20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2015,8 +2015,8 @@
       <c r="N21" s="12">
         <v>80</v>
       </c>
-      <c r="O21" s="13">
-        <v>89.38</v>
+      <c r="O21" s="4">
+        <v>91.4</v>
       </c>
       <c r="P21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2066,12 +2066,12 @@
       <c r="N22" s="12">
         <v>90</v>
       </c>
-      <c r="O22" s="13">
-        <v>73.56</v>
+      <c r="O22" s="4">
+        <v>95.4</v>
       </c>
       <c r="P22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2117,8 +2117,8 @@
       <c r="N23" s="12">
         <v>70</v>
       </c>
-      <c r="O23" s="13">
-        <v>81.56</v>
+      <c r="O23" s="4">
+        <v>87.4</v>
       </c>
       <c r="P23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2168,12 +2168,12 @@
       <c r="N24" s="12">
         <v>50</v>
       </c>
-      <c r="O24" s="13">
-        <v>89.19</v>
+      <c r="O24" s="4">
+        <v>79.400000000000006</v>
       </c>
       <c r="P24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2219,8 +2219,8 @@
       <c r="N25" s="12">
         <v>80</v>
       </c>
-      <c r="O25" s="13">
-        <v>83.44</v>
+      <c r="O25" s="4">
+        <v>91.1</v>
       </c>
       <c r="P25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2270,12 +2270,12 @@
       <c r="N26" s="12">
         <v>70</v>
       </c>
-      <c r="O26" s="13">
-        <v>65.56</v>
+      <c r="O26" s="4">
+        <v>87.4</v>
       </c>
       <c r="P26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2321,8 +2321,8 @@
       <c r="N27" s="12">
         <v>90</v>
       </c>
-      <c r="O27" s="13">
-        <v>86.19</v>
+      <c r="O27" s="4">
+        <v>95.4</v>
       </c>
       <c r="P27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2372,12 +2372,12 @@
       <c r="N28" s="12">
         <v>60</v>
       </c>
-      <c r="O28" s="13">
-        <v>73.38</v>
+      <c r="O28" s="4">
+        <v>82.5</v>
       </c>
       <c r="P28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2423,8 +2423,8 @@
       <c r="N29" s="12">
         <v>90</v>
       </c>
-      <c r="O29" s="13">
-        <v>86.75</v>
+      <c r="O29" s="4">
+        <v>95.4</v>
       </c>
       <c r="P29" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2474,12 +2474,12 @@
       <c r="N30" s="12">
         <v>60</v>
       </c>
-      <c r="O30" s="13">
-        <v>73.38</v>
+      <c r="O30" s="4">
+        <v>83.4</v>
       </c>
       <c r="P30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
@@ -4636,9 +4636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7913E6DD-EB3B-FB44-A801-0D323E8EABCE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5677,7 +5677,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
@@ -7605,9 +7605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08BDEB-EA3E-1246-B578-6F2735C5EEF4}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EB7084-34CC-A24F-BDBF-532E70000DB8}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29B3FD5-EFD6-6344-A263-C1BE3844A292}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="4" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,13 +561,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF5050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -589,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,7 +609,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7605,7 +7597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08BDEB-EA3E-1246-B578-6F2735C5EEF4}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -10734,9 +10726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10812,7 +10804,7 @@
       <c r="I2" s="2">
         <v>60</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="4">
         <v>81</v>
       </c>
       <c r="K2" t="str">
@@ -10848,7 +10840,7 @@
       <c r="I3" s="2">
         <v>60</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="4">
         <v>80.5</v>
       </c>
       <c r="K3" t="str">
@@ -10884,7 +10876,7 @@
       <c r="I4" s="2">
         <v>50</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="4">
         <v>73.5</v>
       </c>
       <c r="K4" t="str">
@@ -10920,7 +10912,7 @@
       <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="4">
         <v>77</v>
       </c>
       <c r="K5" t="str">
@@ -10956,7 +10948,7 @@
       <c r="I6" s="2">
         <v>70</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="4">
         <v>84.25</v>
       </c>
       <c r="K6" t="str">
@@ -10992,7 +10984,7 @@
       <c r="I7" s="2">
         <v>50</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="4">
         <v>65</v>
       </c>
       <c r="K7" t="str">
@@ -11020,7 +11012,7 @@
         <v>95</v>
       </c>
       <c r="G8" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H8" s="19">
         <v>5</v>
@@ -11028,12 +11020,12 @@
       <c r="I8" s="2">
         <v>40</v>
       </c>
-      <c r="J8" s="20">
-        <v>69</v>
+      <c r="J8" s="4">
+        <v>70</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11064,7 +11056,7 @@
       <c r="I9" s="2">
         <v>60</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="4">
         <v>75.5</v>
       </c>
       <c r="K9" t="str">
@@ -11100,7 +11092,7 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="4">
         <v>58.75</v>
       </c>
       <c r="K10" t="str">
@@ -11128,7 +11120,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H11" s="19">
         <v>4</v>
@@ -11136,8 +11128,8 @@
       <c r="I11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="20">
-        <v>55</v>
+      <c r="J11" s="4">
+        <v>56</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -11172,7 +11164,7 @@
       <c r="I12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="4">
         <v>83.5</v>
       </c>
       <c r="K12" t="str">
@@ -11208,7 +11200,7 @@
       <c r="I13" s="2">
         <v>50</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="4">
         <v>67</v>
       </c>
       <c r="K13" t="str">
@@ -11244,7 +11236,7 @@
       <c r="I14" s="2">
         <v>50</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="4">
         <v>70.5</v>
       </c>
       <c r="K14" t="str">
@@ -11280,7 +11272,7 @@
       <c r="I15" s="2">
         <v>40</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="4">
         <v>71.75</v>
       </c>
       <c r="K15" t="str">
@@ -11316,7 +11308,7 @@
       <c r="I16" s="2">
         <v>20</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="4">
         <v>49</v>
       </c>
       <c r="K16" t="str">
@@ -11352,7 +11344,7 @@
       <c r="I17" s="2">
         <v>70</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="4">
         <v>83.75</v>
       </c>
       <c r="K17" t="str">
@@ -11388,7 +11380,7 @@
       <c r="I18" s="2">
         <v>90</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="4">
         <v>92.25</v>
       </c>
       <c r="K18" t="str">
@@ -11424,7 +11416,7 @@
       <c r="I19" s="2">
         <v>80</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="4">
         <v>88.75</v>
       </c>
       <c r="K19" t="str">
@@ -11452,7 +11444,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H20" s="19">
         <v>5</v>
@@ -11460,8 +11452,8 @@
       <c r="I20" s="2">
         <v>60</v>
       </c>
-      <c r="J20" s="20">
-        <v>75</v>
+      <c r="J20" s="4">
+        <v>76</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -11496,7 +11488,7 @@
       <c r="I21" s="2">
         <v>70</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="4">
         <v>83.3</v>
       </c>
       <c r="K21" t="str">
@@ -11532,7 +11524,7 @@
       <c r="I22" s="2">
         <v>30</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="4">
         <v>67.55</v>
       </c>
       <c r="K22" t="str">
@@ -11568,7 +11560,7 @@
       <c r="I23" s="2">
         <v>50</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="4">
         <v>74.55</v>
       </c>
       <c r="K23" t="str">
@@ -11604,7 +11596,7 @@
       <c r="I24" s="2">
         <v>60</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="4">
         <v>79.05</v>
       </c>
       <c r="K24" t="str">
@@ -11640,7 +11632,7 @@
       <c r="I25" s="2">
         <v>80</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="4">
         <v>88.25</v>
       </c>
       <c r="K25" t="str">
@@ -11676,7 +11668,7 @@
       <c r="I26" s="2">
         <v>50</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="4">
         <v>76.25</v>
       </c>
       <c r="K26" t="str">
@@ -11712,7 +11704,7 @@
       <c r="I27" s="2">
         <v>100</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="4">
         <v>90</v>
       </c>
       <c r="K27" t="str">
@@ -11748,7 +11740,7 @@
       <c r="I28" s="2">
         <v>30</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="4">
         <v>63</v>
       </c>
       <c r="K28" t="str">
@@ -11784,7 +11776,7 @@
       <c r="I29" s="2">
         <v>70</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="4">
         <v>84.4</v>
       </c>
       <c r="K29" t="str">
@@ -11820,7 +11812,7 @@
       <c r="I30" s="2">
         <v>20</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="4">
         <v>61.8</v>
       </c>
       <c r="K30" t="str">

--- a/database/database_apollo_class.xlsx
+++ b/database/database_apollo_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29B3FD5-EFD6-6344-A263-C1BE3844A292}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A656A60-C1E8-F346-8782-AE8CDBE0C0CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="7" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="8" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="intro_ai" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +561,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +616,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,8 +938,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4630,7 +4638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5162,14 +5170,14 @@
         <v>40</v>
       </c>
       <c r="H16" s="11">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4">
-        <v>41.5</v>
+        <v>42</v>
+      </c>
+      <c r="I16" s="20">
+        <v>50.3</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -5669,7 +5677,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
@@ -10726,7 +10734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A33F5-6D91-C94E-BA3D-71D5E4D8A34B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
@@ -11901,8 +11909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09506F89-35DF-9B43-8C9B-6CAC1DFD9325}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
